--- a/eCVT_step_response/ecvt_step_response2.xlsx
+++ b/eCVT_step_response/ecvt_step_response2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\Programs\bruin-racing-baja\eCVT_step_response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69BB928-CC4A-4D59-83A1-018BE4CAA758}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDEE7F-8DBE-4F12-B39B-FF6EDC742591}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5EA4D49-530C-4EB9-8A06-62B87964F5CD}"/>
   </bookViews>
@@ -14386,16 +14386,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14422,16 +14422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14759,7 +14759,7 @@
   <dimension ref="A1:I837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
